--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros treino.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.17254233617847</v>
+        <v>28.30040754582787</v>
       </c>
       <c r="C11" t="n">
-        <v>81.58997756189758</v>
+        <v>81.76185245341307</v>
       </c>
       <c r="D11" t="n">
-        <v>84.26663122322977</v>
+        <v>84.26603268994744</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.38870012288326</v>
+        <v>29.67479509937898</v>
       </c>
       <c r="C12" t="n">
-        <v>82.68213404236182</v>
+        <v>86.88663294225883</v>
       </c>
       <c r="D12" t="n">
-        <v>85.19171928673525</v>
+        <v>88.82686266666489</v>
       </c>
     </row>
     <row r="13">
